--- a/data/excel/२०२४/०२/०६.xlsx
+++ b/data/excel/२०२४/०२/०६.xlsx
@@ -16,6 +16,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Max Price</t>
+  </si>
+  <si>
     <t>Min Price</t>
   </si>
   <si>
@@ -25,15 +34,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Max Price</t>
-  </si>
-  <si>
     <t>६५.००</t>
   </si>
   <si>
@@ -64,21 +64,21 @@
     <t>७५.००</t>
   </si>
   <si>
+    <t>के जी</t>
+  </si>
+  <si>
+    <t>४०.००</t>
+  </si>
+  <si>
+    <t>३५.००</t>
+  </si>
+  <si>
+    <t>३७.५०</t>
+  </si>
+  <si>
     <t>गोलभेडा सानो(भारतीय)</t>
   </si>
   <si>
-    <t>के जी</t>
-  </si>
-  <si>
-    <t>४०.००</t>
-  </si>
-  <si>
-    <t>३५.००</t>
-  </si>
-  <si>
-    <t>३७.५०</t>
-  </si>
-  <si>
     <t>गोलभेडा सानो(तराई)</t>
   </si>
   <si>
@@ -88,27 +88,27 @@
     <t>४५.००</t>
   </si>
   <si>
+    <t>आलु रातो</t>
+  </si>
+  <si>
+    <t>३०.००</t>
+  </si>
+  <si>
     <t>२८.००</t>
   </si>
   <si>
     <t>२९.००</t>
   </si>
   <si>
-    <t>आलु रातो</t>
-  </si>
-  <si>
-    <t>३०.००</t>
-  </si>
-  <si>
     <t>आलु रातो(भारतीय)</t>
   </si>
   <si>
+    <t>६३.००</t>
+  </si>
+  <si>
     <t>प्याज सुकेको (भारतीय)</t>
   </si>
   <si>
-    <t>६३.००</t>
-  </si>
-  <si>
     <t>गाजर(लोकल)</t>
   </si>
   <si>
@@ -118,12 +118,12 @@
     <t>२७.५०</t>
   </si>
   <si>
+    <t>२०.००</t>
+  </si>
+  <si>
     <t>गाजर(तराई)</t>
   </si>
   <si>
-    <t>२०.००</t>
-  </si>
-  <si>
     <t>बन्दा(लोकल)</t>
   </si>
   <si>
@@ -133,12 +133,12 @@
     <t>काउली स्थानिय</t>
   </si>
   <si>
+    <t>स्थानीय काउली(ज्यापु)</t>
+  </si>
+  <si>
     <t>५६.६७</t>
   </si>
   <si>
-    <t>स्थानीय काउली(ज्यापु)</t>
-  </si>
-  <si>
     <t>काउली तराई</t>
   </si>
   <si>
@@ -172,18 +172,18 @@
     <t>भन्टा डल्लो</t>
   </si>
   <si>
+    <t>मटरकोशा</t>
+  </si>
+  <si>
+    <t>१२०.००</t>
+  </si>
+  <si>
     <t>१००.००</t>
   </si>
   <si>
     <t>११०.००</t>
   </si>
   <si>
-    <t>मटरकोशा</t>
-  </si>
-  <si>
-    <t>१२०.००</t>
-  </si>
-  <si>
     <t>घिउ सिमी(लोकल)</t>
   </si>
   <si>
@@ -217,12 +217,12 @@
     <t>११२.५०</t>
   </si>
   <si>
+    <t>लौका</t>
+  </si>
+  <si>
     <t>६६.६७</t>
   </si>
   <si>
-    <t>लौका</t>
-  </si>
-  <si>
     <t>घिरौला</t>
   </si>
   <si>
@@ -241,12 +241,12 @@
     <t>सलगम</t>
   </si>
   <si>
+    <t>११५.००</t>
+  </si>
+  <si>
     <t>भिण्डी</t>
   </si>
   <si>
-    <t>११५.००</t>
-  </si>
-  <si>
     <t>सखरखण्ड</t>
   </si>
   <si>
@@ -256,12 +256,12 @@
     <t>पिंडालू</t>
   </si>
   <si>
+    <t>स्कूस</t>
+  </si>
+  <si>
     <t>४६.६७</t>
   </si>
   <si>
-    <t>स्कूस</t>
-  </si>
-  <si>
     <t>रायो साग</t>
   </si>
   <si>
@@ -310,6 +310,9 @@
     <t>२७५.००</t>
   </si>
   <si>
+    <t>१८००.००</t>
+  </si>
+  <si>
     <t>१५००.००</t>
   </si>
   <si>
@@ -319,15 +322,15 @@
     <t>कुरीलो</t>
   </si>
   <si>
-    <t>१८००.००</t>
-  </si>
-  <si>
     <t>ब्रोकाउली</t>
   </si>
   <si>
     <t>चुकुन्दर</t>
   </si>
   <si>
+    <t>२१०.००</t>
+  </si>
+  <si>
     <t>सजिवन</t>
   </si>
   <si>
@@ -337,9 +340,6 @@
     <t>२००.००</t>
   </si>
   <si>
-    <t>२१०.००</t>
-  </si>
-  <si>
     <t>रातो बन्दा</t>
   </si>
   <si>
@@ -352,6 +352,9 @@
     <t>सेलरी</t>
   </si>
   <si>
+    <t>३७५.००</t>
+  </si>
+  <si>
     <t>पार्सले</t>
   </si>
   <si>
@@ -361,9 +364,6 @@
     <t>३५०.००</t>
   </si>
   <si>
-    <t>३७५.००</t>
-  </si>
-  <si>
     <t>सौफको साग</t>
   </si>
   <si>
@@ -409,30 +409,30 @@
     <t>स्याउ(फूजी)</t>
   </si>
   <si>
+    <t>दर्जन</t>
+  </si>
+  <si>
     <t>केरा</t>
   </si>
   <si>
-    <t>दर्जन</t>
+    <t>कागती</t>
   </si>
   <si>
     <t>२२५.००</t>
   </si>
   <si>
-    <t>कागती</t>
-  </si>
-  <si>
     <t>अनार</t>
   </si>
   <si>
+    <t>१८०.००</t>
+  </si>
+  <si>
+    <t>१६५.००</t>
+  </si>
+  <si>
     <t>अंगुर(हरियो)</t>
   </si>
   <si>
-    <t>१८०.००</t>
-  </si>
-  <si>
-    <t>१६५.००</t>
-  </si>
-  <si>
     <t>अंगुर(कालो)</t>
   </si>
   <si>
@@ -445,18 +445,18 @@
     <t>मौसम</t>
   </si>
   <si>
+    <t>जुनार</t>
+  </si>
+  <si>
     <t>२३५.००</t>
   </si>
   <si>
-    <t>जुनार</t>
+    <t>भुई कटहर</t>
   </si>
   <si>
     <t>प्रति गोटा</t>
   </si>
   <si>
-    <t>भुई कटहर</t>
-  </si>
-  <si>
     <t>काक्रो(लोकल)</t>
   </si>
   <si>
@@ -508,13 +508,16 @@
     <t>अमला</t>
   </si>
   <si>
+    <t>२४०.००</t>
+  </si>
+  <si>
+    <t>२३०.००</t>
+  </si>
+  <si>
     <t>अदुवा</t>
   </si>
   <si>
-    <t>२४०.००</t>
-  </si>
-  <si>
-    <t>२३०.००</t>
+    <t>४७०.००</t>
   </si>
   <si>
     <t>खु्र्सानी सुकेको</t>
@@ -526,9 +529,6 @@
     <t>४६०.००</t>
   </si>
   <si>
-    <t>४७०.००</t>
-  </si>
-  <si>
     <t>खु्र्सानी हरियो</t>
   </si>
   <si>
@@ -550,24 +550,24 @@
     <t>हरियो धनिया</t>
   </si>
   <si>
+    <t>लसुन सुकेको चाइनिज</t>
+  </si>
+  <si>
     <t>३६०.००</t>
   </si>
   <si>
     <t>३४०.००</t>
   </si>
   <si>
-    <t>लसुन सुकेको चाइनिज</t>
+    <t>२८०.००</t>
+  </si>
+  <si>
+    <t>२९०.००</t>
   </si>
   <si>
     <t>छ्यापी सुकेको</t>
   </si>
   <si>
-    <t>२८०.००</t>
-  </si>
-  <si>
-    <t>२९०.००</t>
-  </si>
-  <si>
     <t>छ्यापी हरियो</t>
   </si>
   <si>
@@ -577,25 +577,25 @@
     <t>३७०.००</t>
   </si>
   <si>
+    <t>२६०.००</t>
+  </si>
+  <si>
     <t>ताजा माछा(बचुवा)</t>
   </si>
   <si>
     <t>२७०.००</t>
   </si>
   <si>
-    <t>२६०.००</t>
-  </si>
-  <si>
     <t>ताजा माछा(छडी)</t>
   </si>
   <si>
+    <t>ताजा माछा(मुंगरी)</t>
+  </si>
+  <si>
     <t>३१०.००</t>
   </si>
   <si>
     <t>३१५.००</t>
-  </si>
-  <si>
-    <t>ताजा माछा(मुंगरी)</t>
   </si>
   <si>
     <t>रुख टमाटर</t>
@@ -913,22 +913,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -976,19 +976,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -999,13 +999,13 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
@@ -1016,19 +1016,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -1039,16 +1039,16 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -1056,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1068,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1082,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -1096,16 +1096,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
@@ -1122,13 +1122,13 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
         <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -1142,10 +1142,10 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
@@ -1162,13 +1162,13 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -1176,7 +1176,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1188,7 +1188,7 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -1202,13 +1202,13 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -1262,7 +1262,7 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
         <v>43</v>
@@ -1316,19 +1316,19 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
         <v>54</v>
       </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>55</v>
-      </c>
-      <c r="E21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22">
@@ -1385,10 +1385,10 @@
         <v>61</v>
       </c>
       <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
         <v>53</v>
-      </c>
-      <c r="F24" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -1422,10 +1422,10 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
         <v>66</v>
@@ -1436,7 +1436,7 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -1448,7 +1448,7 @@
         <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -1556,19 +1556,19 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" t="s">
         <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="34">
@@ -1636,7 +1636,7 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -1645,10 +1645,10 @@
         <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
@@ -1665,10 +1665,10 @@
         <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
@@ -1725,7 +1725,7 @@
         <v>22</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41" t="s">
         <v>23</v>
@@ -1762,10 +1762,10 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" t="s">
         <v>55</v>
-      </c>
-      <c r="E43" t="s">
-        <v>53</v>
       </c>
       <c r="F43" t="s">
         <v>88</v>
@@ -1825,7 +1825,7 @@
         <v>92</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F46" t="s">
         <v>93</v>
@@ -1839,7 +1839,7 @@
         <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
         <v>95</v>
@@ -1856,19 +1856,19 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" t="s">
         <v>100</v>
-      </c>
-      <c r="C48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" t="s">
-        <v>101</v>
-      </c>
-      <c r="E48" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="49">
@@ -1888,7 +1888,7 @@
         <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
@@ -1916,19 +1916,19 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" t="s">
         <v>104</v>
-      </c>
-      <c r="C51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" t="s">
-        <v>106</v>
-      </c>
-      <c r="F51" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="52">
@@ -1988,7 +1988,7 @@
         <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55">
@@ -2002,13 +2002,13 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" t="s">
         <v>55</v>
-      </c>
-      <c r="E55" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="56">
@@ -2016,19 +2016,19 @@
         <v>7</v>
       </c>
       <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" t="s">
         <v>112</v>
-      </c>
-      <c r="C56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E56" t="s">
-        <v>114</v>
-      </c>
-      <c r="F56" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="57">
@@ -2062,13 +2062,13 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59">
@@ -2122,7 +2122,7 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E61" t="s">
         <v>57</v>
@@ -2179,10 +2179,10 @@
         <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
         <v>128</v>
@@ -2196,16 +2196,16 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="s">
         <v>131</v>
-      </c>
-      <c r="C65" t="s">
-        <v>132</v>
       </c>
       <c r="D65" t="s">
         <v>120</v>
       </c>
       <c r="E65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F65" t="s">
         <v>61</v>
@@ -2216,7 +2216,7 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
@@ -2225,10 +2225,10 @@
         <v>96</v>
       </c>
       <c r="E66" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F66" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67">
@@ -2256,19 +2256,19 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
         <v>136</v>
-      </c>
-      <c r="C68" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" t="s">
-        <v>137</v>
       </c>
       <c r="E68" t="s">
         <v>92</v>
       </c>
       <c r="F68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69">
@@ -2285,10 +2285,10 @@
         <v>96</v>
       </c>
       <c r="E69" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F69" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70">
@@ -2305,7 +2305,7 @@
         <v>120</v>
       </c>
       <c r="E70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F70" t="s">
         <v>61</v>
@@ -2328,7 +2328,7 @@
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72">
@@ -2356,7 +2356,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C73" t="s">
         <v>9</v>
@@ -2365,10 +2365,10 @@
         <v>96</v>
       </c>
       <c r="E73" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F73" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74">
@@ -2376,19 +2376,19 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" t="s">
         <v>146</v>
       </c>
-      <c r="C74" t="s">
-        <v>145</v>
-      </c>
       <c r="D74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E74" t="s">
         <v>92</v>
       </c>
       <c r="F74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75">
@@ -2405,7 +2405,7 @@
         <v>120</v>
       </c>
       <c r="E75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F75" t="s">
         <v>61</v>
@@ -2419,7 +2419,7 @@
         <v>148</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
@@ -2428,7 +2428,7 @@
         <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77">
@@ -2442,10 +2442,10 @@
         <v>9</v>
       </c>
       <c r="D77" t="s">
+        <v>53</v>
+      </c>
+      <c r="E77" t="s">
         <v>55</v>
-      </c>
-      <c r="E77" t="s">
-        <v>53</v>
       </c>
       <c r="F77" t="s">
         <v>88</v>
@@ -2485,10 +2485,10 @@
         <v>96</v>
       </c>
       <c r="E79" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F79" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80">
@@ -2545,7 +2545,7 @@
         <v>92</v>
       </c>
       <c r="E82" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F82" t="s">
         <v>154</v>
@@ -2602,13 +2602,13 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E85" t="s">
         <v>95</v>
       </c>
       <c r="F85" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86">
@@ -2622,13 +2622,13 @@
         <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E86" t="s">
         <v>95</v>
       </c>
       <c r="F86" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87">
@@ -2642,7 +2642,7 @@
         <v>161</v>
       </c>
       <c r="D87" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E87" t="s">
         <v>95</v>
@@ -2676,19 +2676,19 @@
         <v>7</v>
       </c>
       <c r="B89" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
         <v>164</v>
       </c>
-      <c r="C89" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
+        <v>106</v>
+      </c>
+      <c r="F89" t="s">
         <v>165</v>
-      </c>
-      <c r="E89" t="s">
-        <v>105</v>
-      </c>
-      <c r="F89" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="90">
@@ -2696,19 +2696,19 @@
         <v>7</v>
       </c>
       <c r="B90" t="s">
+        <v>168</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>169</v>
+      </c>
+      <c r="E90" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" t="s">
         <v>167</v>
-      </c>
-      <c r="C90" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" t="s">
-        <v>168</v>
-      </c>
-      <c r="E90" t="s">
-        <v>169</v>
-      </c>
-      <c r="F90" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="91">
@@ -2739,7 +2739,7 @@
         <v>172</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
@@ -2759,7 +2759,7 @@
         <v>173</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
         <v>14</v>
@@ -2782,10 +2782,10 @@
         <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E94" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F94" t="s">
         <v>175</v>
@@ -2802,10 +2802,10 @@
         <v>9</v>
       </c>
       <c r="D95" t="s">
+        <v>53</v>
+      </c>
+      <c r="E95" t="s">
         <v>55</v>
-      </c>
-      <c r="E95" t="s">
-        <v>53</v>
       </c>
       <c r="F95" t="s">
         <v>88</v>
@@ -2822,13 +2822,13 @@
         <v>9</v>
       </c>
       <c r="D96" t="s">
+        <v>53</v>
+      </c>
+      <c r="E96" t="s">
         <v>55</v>
       </c>
-      <c r="E96" t="s">
-        <v>53</v>
-      </c>
       <c r="F96" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97">
@@ -2836,19 +2836,19 @@
         <v>7</v>
       </c>
       <c r="B97" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" t="s">
+        <v>179</v>
+      </c>
+      <c r="E97" t="s">
         <v>180</v>
       </c>
-      <c r="C97" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" t="s">
-        <v>178</v>
-      </c>
-      <c r="E97" t="s">
-        <v>179</v>
-      </c>
       <c r="F97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98">
@@ -2856,7 +2856,7 @@
         <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C98" t="s">
         <v>9</v>
@@ -2865,10 +2865,10 @@
         <v>95</v>
       </c>
       <c r="E98" t="s">
+        <v>181</v>
+      </c>
+      <c r="F98" t="s">
         <v>182</v>
-      </c>
-      <c r="F98" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="99">
@@ -2882,13 +2882,13 @@
         <v>9</v>
       </c>
       <c r="D99" t="s">
+        <v>53</v>
+      </c>
+      <c r="E99" t="s">
+        <v>54</v>
+      </c>
+      <c r="F99" t="s">
         <v>55</v>
-      </c>
-      <c r="E99" t="s">
-        <v>52</v>
-      </c>
-      <c r="F99" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="100">
@@ -2899,16 +2899,16 @@
         <v>185</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D100" t="s">
         <v>186</v>
       </c>
       <c r="E100" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F100" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101">
@@ -2916,19 +2916,19 @@
         <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E101" t="s">
         <v>96</v>
       </c>
       <c r="F101" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="102">
@@ -2939,7 +2939,7 @@
         <v>190</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D102" t="s">
         <v>95</v>
@@ -2956,19 +2956,19 @@
         <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D103" t="s">
         <v>128</v>
       </c>
       <c r="E103" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F103" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104">
@@ -2985,7 +2985,7 @@
         <v>61</v>
       </c>
       <c r="E104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F104" t="s">
         <v>195</v>
